--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-297567.6225857195</v>
+        <v>-300130.1114629414</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>160.7957395373649</v>
+        <v>370.8194726552474</v>
       </c>
       <c r="C11" t="n">
         <v>353.3585227627743</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>342.7686726124497</v>
       </c>
       <c r="E11" t="n">
         <v>370.0160010640286</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>389.6490773520794</v>
       </c>
       <c r="G11" t="n">
         <v>399.0073566452202</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.27339277994263</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>192.0036011313869</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>239.0808029506688</v>
       </c>
       <c r="V11" t="n">
-        <v>315.8378894619017</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>337.3265997091798</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>357.8167316702358</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>167.9176111737041</v>
       </c>
       <c r="C13" t="n">
-        <v>155.3324520903946</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>136.7011040099791</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>134.5195936383359</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>154.111439250795</v>
+        <v>39.7503546225664</v>
       </c>
       <c r="H13" t="n">
         <v>132.8406459060876</v>
@@ -1585,13 +1585,13 @@
         <v>274.2974691973797</v>
       </c>
       <c r="V13" t="n">
-        <v>81.02193750316437</v>
+        <v>240.2232743155948</v>
       </c>
       <c r="W13" t="n">
         <v>274.6086293283578</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>213.7952863808039</v>
       </c>
       <c r="Y13" t="n">
         <v>206.6702843438616</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>370.8194726552474</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>353.3585227627743</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>342.7686726124497</v>
       </c>
       <c r="E14" t="n">
         <v>370.0160010640286</v>
@@ -1619,13 +1619,13 @@
         <v>394.9616767334782</v>
       </c>
       <c r="G14" t="n">
-        <v>399.0073566452202</v>
+        <v>393.9973974127999</v>
       </c>
       <c r="H14" t="n">
-        <v>282.6933953790873</v>
+        <v>282.6933953790872</v>
       </c>
       <c r="I14" t="n">
-        <v>29.66256076469278</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>97.27339277994265</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>192.0036011313869</v>
@@ -1664,16 +1664,16 @@
         <v>239.0808029506688</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>315.8378894619017</v>
       </c>
       <c r="W14" t="n">
-        <v>123.3024156108683</v>
+        <v>337.3265997091798</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>357.8167316702358</v>
       </c>
       <c r="Y14" t="n">
-        <v>374.3235696478204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>167.9176111737041</v>
       </c>
       <c r="C16" t="n">
         <v>155.3324520903946</v>
@@ -1771,19 +1771,19 @@
         <v>136.7011040099791</v>
       </c>
       <c r="E16" t="n">
-        <v>134.5195936383359</v>
+        <v>87.22772877214142</v>
       </c>
       <c r="F16" t="n">
-        <v>133.506679014698</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>154.111439250795</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>132.8406459060876</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>84.43805140160489</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>77.01778366181415</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>177.8546563232087</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>207.634580267936</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>274.2974691973797</v>
       </c>
       <c r="V16" t="n">
         <v>240.2232743155948</v>
@@ -1828,10 +1828,10 @@
         <v>274.6086293283578</v>
       </c>
       <c r="X16" t="n">
-        <v>27.76819857476829</v>
+        <v>213.7952863808039</v>
       </c>
       <c r="Y16" t="n">
-        <v>206.6702843438616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C17" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D17" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E17" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F17" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G17" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H17" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.50304156007078</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T17" t="n">
-        <v>106.2332499115151</v>
+        <v>106.233249911516</v>
       </c>
       <c r="U17" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V17" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W17" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X17" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y17" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383219</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052273</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010725</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846406</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482614</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G19" t="n">
-        <v>68.34108803092312</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H19" t="n">
-        <v>47.07029468621569</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.08430510333682</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T19" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U19" t="n">
-        <v>188.5271179775077</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V19" t="n">
-        <v>154.4529230957229</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W19" t="n">
-        <v>188.8382781084859</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X19" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y19" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C20" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D20" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E20" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F20" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G20" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H20" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.50304156007078</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T20" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U20" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V20" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W20" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X20" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y20" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383219</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052273</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010725</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846406</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482614</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G22" t="n">
-        <v>68.34108803092312</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H22" t="n">
-        <v>47.07029468621569</v>
+        <v>47.07029468621581</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.08430510333682</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T22" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U22" t="n">
-        <v>188.5271179775077</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V22" t="n">
-        <v>154.4529230957229</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W22" t="n">
-        <v>188.8382781084859</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X22" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y22" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C23" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D23" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E23" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F23" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G23" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H23" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007074</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T23" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U23" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V23" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W23" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X23" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y23" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="24">
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.14725995383219</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052273</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010725</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846406</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482614</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G25" t="n">
-        <v>68.34108803092312</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621568</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333679</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T25" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U25" t="n">
-        <v>188.5271179775077</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V25" t="n">
-        <v>154.4529230957229</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W25" t="n">
-        <v>188.8382781084859</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X25" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y25" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>296.9634904436087</v>
+        <v>296.9634904436088</v>
       </c>
       <c r="C26" t="n">
-        <v>279.5025405511357</v>
+        <v>279.5025405511358</v>
       </c>
       <c r="D26" t="n">
-        <v>268.9126904008111</v>
+        <v>268.9126904008112</v>
       </c>
       <c r="E26" t="n">
-        <v>296.1600188523899</v>
+        <v>296.16001885239</v>
       </c>
       <c r="F26" t="n">
-        <v>321.1056945218396</v>
+        <v>321.1056945218397</v>
       </c>
       <c r="G26" t="n">
-        <v>325.1513744335816</v>
+        <v>325.1513744335817</v>
       </c>
       <c r="H26" t="n">
-        <v>208.8374131674486</v>
+        <v>208.8374131674487</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>23.41741056830396</v>
+        <v>23.41741056830408</v>
       </c>
       <c r="T26" t="n">
-        <v>118.1476189197483</v>
+        <v>118.1476189197484</v>
       </c>
       <c r="U26" t="n">
-        <v>165.2248207390301</v>
+        <v>165.2248207390302</v>
       </c>
       <c r="V26" t="n">
-        <v>241.981907250263</v>
+        <v>241.9819072502631</v>
       </c>
       <c r="W26" t="n">
-        <v>263.4706174975411</v>
+        <v>263.4706174975412</v>
       </c>
       <c r="X26" t="n">
-        <v>283.9607494585971</v>
+        <v>283.9607494585973</v>
       </c>
       <c r="Y26" t="n">
-        <v>300.4675874361817</v>
+        <v>300.4675874361818</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94.06162896206541</v>
+        <v>94.06162896206553</v>
       </c>
       <c r="C28" t="n">
-        <v>81.47646987875595</v>
+        <v>81.47646987875606</v>
       </c>
       <c r="D28" t="n">
-        <v>62.84512179834047</v>
+        <v>62.84512179834059</v>
       </c>
       <c r="E28" t="n">
-        <v>60.66361142669729</v>
+        <v>60.6636114266974</v>
       </c>
       <c r="F28" t="n">
-        <v>59.65069680305936</v>
+        <v>59.65069680305947</v>
       </c>
       <c r="G28" t="n">
-        <v>80.25545703915634</v>
+        <v>80.25545703915645</v>
       </c>
       <c r="H28" t="n">
-        <v>58.9846636944489</v>
+        <v>58.98466369444901</v>
       </c>
       <c r="I28" t="n">
-        <v>10.58206918996623</v>
+        <v>10.58206918996634</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.16180145017546</v>
+        <v>3.161801450175574</v>
       </c>
       <c r="S28" t="n">
-        <v>103.99867411157</v>
+        <v>103.9986741115701</v>
       </c>
       <c r="T28" t="n">
-        <v>133.7785980562973</v>
+        <v>133.7785980562974</v>
       </c>
       <c r="U28" t="n">
-        <v>200.441486985741</v>
+        <v>200.4414869857411</v>
       </c>
       <c r="V28" t="n">
-        <v>166.3672921039561</v>
+        <v>166.3672921039562</v>
       </c>
       <c r="W28" t="n">
-        <v>200.7526471167191</v>
+        <v>200.7526471167192</v>
       </c>
       <c r="X28" t="n">
-        <v>139.9393041691653</v>
+        <v>139.9393041691654</v>
       </c>
       <c r="Y28" t="n">
-        <v>132.8143021322229</v>
+        <v>132.814302132223</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>296.9634904436087</v>
+        <v>296.9634904436088</v>
       </c>
       <c r="C29" t="n">
-        <v>279.5025405511357</v>
+        <v>279.5025405511358</v>
       </c>
       <c r="D29" t="n">
-        <v>268.9126904008111</v>
+        <v>268.9126904008112</v>
       </c>
       <c r="E29" t="n">
-        <v>296.1600188523899</v>
+        <v>296.16001885239</v>
       </c>
       <c r="F29" t="n">
-        <v>321.1056945218396</v>
+        <v>321.1056945218397</v>
       </c>
       <c r="G29" t="n">
-        <v>325.1513744335816</v>
+        <v>325.1513744335817</v>
       </c>
       <c r="H29" t="n">
-        <v>208.8374131674486</v>
+        <v>208.8374131674487</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>23.41741056830396</v>
+        <v>23.41741056830406</v>
       </c>
       <c r="T29" t="n">
-        <v>118.1476189197483</v>
+        <v>118.1476189197484</v>
       </c>
       <c r="U29" t="n">
-        <v>165.2248207390301</v>
+        <v>165.2248207390302</v>
       </c>
       <c r="V29" t="n">
-        <v>241.981907250263</v>
+        <v>241.9819072502631</v>
       </c>
       <c r="W29" t="n">
-        <v>263.4706174975411</v>
+        <v>263.4706174975412</v>
       </c>
       <c r="X29" t="n">
-        <v>283.9607494585971</v>
+        <v>283.9607494585973</v>
       </c>
       <c r="Y29" t="n">
-        <v>300.4675874361817</v>
+        <v>300.4675874361818</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.06162896206541</v>
+        <v>94.06162896206553</v>
       </c>
       <c r="C31" t="n">
-        <v>81.47646987875595</v>
+        <v>81.47646987875606</v>
       </c>
       <c r="D31" t="n">
-        <v>62.84512179834047</v>
+        <v>62.84512179834059</v>
       </c>
       <c r="E31" t="n">
-        <v>60.66361142669729</v>
+        <v>60.6636114266974</v>
       </c>
       <c r="F31" t="n">
-        <v>59.65069680305936</v>
+        <v>59.65069680305947</v>
       </c>
       <c r="G31" t="n">
-        <v>80.25545703915634</v>
+        <v>80.25545703915645</v>
       </c>
       <c r="H31" t="n">
-        <v>58.9846636944489</v>
+        <v>58.98466369444901</v>
       </c>
       <c r="I31" t="n">
-        <v>10.58206918996623</v>
+        <v>10.58206918996633</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.16180145017546</v>
+        <v>3.16180145017556</v>
       </c>
       <c r="S31" t="n">
-        <v>103.99867411157</v>
+        <v>103.9986741115701</v>
       </c>
       <c r="T31" t="n">
-        <v>133.7785980562973</v>
+        <v>133.7785980562974</v>
       </c>
       <c r="U31" t="n">
-        <v>200.441486985741</v>
+        <v>200.4414869857411</v>
       </c>
       <c r="V31" t="n">
-        <v>166.3672921039561</v>
+        <v>166.3672921039562</v>
       </c>
       <c r="W31" t="n">
-        <v>200.7526471167191</v>
+        <v>200.7526471167192</v>
       </c>
       <c r="X31" t="n">
-        <v>139.9393041691653</v>
+        <v>139.9393041691654</v>
       </c>
       <c r="Y31" t="n">
-        <v>132.8143021322229</v>
+        <v>132.814302132223</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>296.9634904436086</v>
+        <v>296.9634904436087</v>
       </c>
       <c r="C32" t="n">
         <v>279.5025405511357</v>
       </c>
       <c r="D32" t="n">
-        <v>268.912690400811</v>
+        <v>268.9126904008111</v>
       </c>
       <c r="E32" t="n">
-        <v>296.1600188523898</v>
+        <v>296.16001885239</v>
       </c>
       <c r="F32" t="n">
-        <v>321.1056945218395</v>
+        <v>321.1056945218396</v>
       </c>
       <c r="G32" t="n">
-        <v>325.1513744335815</v>
+        <v>325.1513744335816</v>
       </c>
       <c r="H32" t="n">
-        <v>208.8374131674485</v>
+        <v>208.8374131674486</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>23.41741056830394</v>
+        <v>23.41741056830402</v>
       </c>
       <c r="T32" t="n">
         <v>118.1476189197483</v>
       </c>
       <c r="U32" t="n">
-        <v>165.2248207390301</v>
+        <v>165.2248207390302</v>
       </c>
       <c r="V32" t="n">
-        <v>241.981907250263</v>
+        <v>241.9819072502631</v>
       </c>
       <c r="W32" t="n">
-        <v>263.4706174975411</v>
+        <v>263.4706174975412</v>
       </c>
       <c r="X32" t="n">
-        <v>283.9607494585971</v>
+        <v>283.9607494585972</v>
       </c>
       <c r="Y32" t="n">
-        <v>300.4675874361817</v>
+        <v>300.4675874361818</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.06162896206538</v>
+        <v>94.06162896206547</v>
       </c>
       <c r="C34" t="n">
-        <v>81.47646987875592</v>
+        <v>81.47646987875601</v>
       </c>
       <c r="D34" t="n">
-        <v>62.84512179834044</v>
+        <v>62.84512179834053</v>
       </c>
       <c r="E34" t="n">
-        <v>60.66361142669726</v>
+        <v>60.66361142669734</v>
       </c>
       <c r="F34" t="n">
-        <v>59.65069680305933</v>
+        <v>59.65069680305942</v>
       </c>
       <c r="G34" t="n">
-        <v>80.25545703915631</v>
+        <v>80.2554570391564</v>
       </c>
       <c r="H34" t="n">
-        <v>58.98466369444887</v>
+        <v>58.98466369444895</v>
       </c>
       <c r="I34" t="n">
-        <v>10.5820691899662</v>
+        <v>10.58206918996628</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.161801450175432</v>
+        <v>3.161801450175517</v>
       </c>
       <c r="S34" t="n">
-        <v>103.99867411157</v>
+        <v>103.9986741115701</v>
       </c>
       <c r="T34" t="n">
-        <v>133.7785980562973</v>
+        <v>133.7785980562974</v>
       </c>
       <c r="U34" t="n">
-        <v>200.4414869857409</v>
+        <v>200.441486985741</v>
       </c>
       <c r="V34" t="n">
-        <v>166.3672921039561</v>
+        <v>166.3672921039562</v>
       </c>
       <c r="W34" t="n">
-        <v>200.7526471167191</v>
+        <v>200.7526471167192</v>
       </c>
       <c r="X34" t="n">
-        <v>139.9393041691652</v>
+        <v>139.9393041691653</v>
       </c>
       <c r="Y34" t="n">
-        <v>132.8143021322229</v>
+        <v>132.814302132223</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383232</v>
+        <v>82.14725995383229</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846416</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482624</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092325</v>
+        <v>68.34108803092322</v>
       </c>
       <c r="H37" t="n">
-        <v>47.0702946862158</v>
+        <v>47.07029468621577</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333692</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480642</v>
@@ -3503,7 +3503,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
         <v>256.998321392578</v>
@@ -3518,7 +3518,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498662</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383232</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092325</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H40" t="n">
-        <v>47.0702946862158</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V40" t="n">
         <v>154.452923095723</v>
@@ -3724,7 +3724,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239898</v>
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
         <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
         <v>196.9230441592154</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007078</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
         <v>230.0675382420299</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383223</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052277</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010729</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846411</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482618</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092316</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621572</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333685</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
         <v>188.5271179775078</v>
@@ -3964,7 +3964,7 @@
         <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
         <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
         <v>196.9230441592154</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007078</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
         <v>230.0675382420299</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383223</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052277</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010729</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846411</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482618</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092316</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621572</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333685</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
         <v>188.5271179775078</v>
@@ -4201,7 +4201,7 @@
         <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1230.193370206644</v>
+        <v>1970.009279261724</v>
       </c>
       <c r="C11" t="n">
-        <v>873.2655694361646</v>
+        <v>1613.081478491245</v>
       </c>
       <c r="D11" t="n">
-        <v>873.2655694361646</v>
+        <v>1266.850496054427</v>
       </c>
       <c r="E11" t="n">
-        <v>499.5120330078529</v>
+        <v>893.096959626115</v>
       </c>
       <c r="F11" t="n">
-        <v>499.5120330078529</v>
+        <v>499.5120330078531</v>
       </c>
       <c r="G11" t="n">
         <v>96.47429902278216</v>
@@ -5042,7 +5042,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3227.349869306198</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3033.406837860352</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2791.911077304122</v>
+        <v>3084.110061052939</v>
       </c>
       <c r="V11" t="n">
-        <v>2472.882906130483</v>
+        <v>3084.110061052939</v>
       </c>
       <c r="W11" t="n">
-        <v>2132.148967030302</v>
+        <v>3084.110061052939</v>
       </c>
       <c r="X11" t="n">
-        <v>1770.717924939154</v>
+        <v>2722.679018961792</v>
       </c>
       <c r="Y11" t="n">
-        <v>1392.613309133275</v>
+        <v>2344.574403155913</v>
       </c>
     </row>
     <row r="12">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>787.2244749125797</v>
+        <v>240.8464604005206</v>
       </c>
       <c r="C13" t="n">
-        <v>630.3230081546053</v>
+        <v>240.8464604005206</v>
       </c>
       <c r="D13" t="n">
-        <v>492.2410849122022</v>
+        <v>240.8464604005206</v>
       </c>
       <c r="E13" t="n">
-        <v>356.3627074997413</v>
+        <v>240.8464604005206</v>
       </c>
       <c r="F13" t="n">
-        <v>356.3627074997413</v>
+        <v>240.8464604005206</v>
       </c>
       <c r="G13" t="n">
-        <v>200.6945870443928</v>
+        <v>200.6945870443931</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5212,7 +5212,7 @@
         <v>1376.723279172659</v>
       </c>
       <c r="O13" t="n">
-        <v>1687.848103411223</v>
+        <v>1687.848103411224</v>
       </c>
       <c r="P13" t="n">
         <v>1932.250829163034</v>
@@ -5233,16 +5233,16 @@
         <v>1355.205132665493</v>
       </c>
       <c r="V13" t="n">
-        <v>1273.364791753205</v>
+        <v>1112.555360629538</v>
       </c>
       <c r="W13" t="n">
-        <v>995.9823378861772</v>
+        <v>835.1729067625101</v>
       </c>
       <c r="X13" t="n">
-        <v>995.9823378861772</v>
+        <v>619.2180720344254</v>
       </c>
       <c r="Y13" t="n">
-        <v>787.2244749125797</v>
+        <v>410.4602090608278</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1914.693443047619</v>
+        <v>1868.973877242127</v>
       </c>
       <c r="C14" t="n">
-        <v>1557.76564227714</v>
+        <v>1868.973877242127</v>
       </c>
       <c r="D14" t="n">
-        <v>1557.76564227714</v>
+        <v>1522.74289480531</v>
       </c>
       <c r="E14" t="n">
-        <v>1184.012105848828</v>
+        <v>1148.989358376998</v>
       </c>
       <c r="F14" t="n">
-        <v>785.060917229153</v>
+        <v>750.0381697573229</v>
       </c>
       <c r="G14" t="n">
-        <v>382.0231832440824</v>
+        <v>352.0610006534837</v>
       </c>
       <c r="H14" t="n">
-        <v>96.47429902278216</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5288,40 +5288,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3227.349869306197</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3033.406837860352</v>
+        <v>3131.662790163326</v>
       </c>
       <c r="U14" t="n">
-        <v>2791.91107730412</v>
+        <v>2890.167029607094</v>
       </c>
       <c r="V14" t="n">
-        <v>2791.91107730412</v>
+        <v>2571.138858433456</v>
       </c>
       <c r="W14" t="n">
-        <v>2667.363182747687</v>
+        <v>2230.404919333275</v>
       </c>
       <c r="X14" t="n">
-        <v>2667.363182747687</v>
+        <v>1868.973877242127</v>
       </c>
       <c r="Y14" t="n">
-        <v>2289.258566941808</v>
+        <v>1868.973877242127</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5370,7 +5370,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
         <v>2407.41198488674</v>
@@ -5379,28 +5379,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1007.37066725228</v>
+        <v>449.6043233741182</v>
       </c>
       <c r="C16" t="n">
-        <v>850.469200494305</v>
+        <v>292.7028566161438</v>
       </c>
       <c r="D16" t="n">
-        <v>712.3872772519019</v>
+        <v>154.6209333737406</v>
       </c>
       <c r="E16" t="n">
-        <v>576.5088998394414</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>441.6536685114636</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>285.9855480561151</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>151.8030774439055</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>123.4299741972697</v>
+        <v>123.4299741972698</v>
       </c>
       <c r="K16" t="n">
-        <v>339.2123824642969</v>
+        <v>339.212382464297</v>
       </c>
       <c r="L16" t="n">
-        <v>667.5674062309438</v>
+        <v>667.5674062309439</v>
       </c>
       <c r="M16" t="n">
-        <v>1023.519677148643</v>
+        <v>1023.519677148644</v>
       </c>
       <c r="N16" t="n">
         <v>1376.723279172659</v>
@@ -5455,31 +5455,31 @@
         <v>1932.250829163033</v>
       </c>
       <c r="Q16" t="n">
-        <v>2021.656350633698</v>
+        <v>2021.656350633699</v>
       </c>
       <c r="R16" t="n">
-        <v>1943.860609561159</v>
+        <v>2021.656350633699</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.209441557918</v>
+        <v>1842.005182630458</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.209441557918</v>
+        <v>1632.273283369916</v>
       </c>
       <c r="U16" t="n">
-        <v>1764.209441557918</v>
+        <v>1355.205132665493</v>
       </c>
       <c r="V16" t="n">
-        <v>1521.559669521964</v>
+        <v>1112.555360629538</v>
       </c>
       <c r="W16" t="n">
-        <v>1244.177215654936</v>
+        <v>835.1729067625101</v>
       </c>
       <c r="X16" t="n">
-        <v>1216.128530225877</v>
+        <v>619.2180720344253</v>
       </c>
       <c r="Y16" t="n">
-        <v>1007.37066725228</v>
+        <v>619.2180720344253</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C17" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D17" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E17" t="n">
-        <v>894.1397680464967</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F17" t="n">
-        <v>581.8252978307327</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G17" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912086</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810547</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939505</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3313.986587710107</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T17" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U17" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V17" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W17" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X17" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y17" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158125</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.2593958170914</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C19" t="n">
-        <v>331.9946474630281</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D19" t="n">
-        <v>280.5494426245359</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E19" t="n">
-        <v>231.3077836159864</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F19" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G19" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>67.83109325226768</v>
+        <v>67.83109325226762</v>
       </c>
       <c r="J19" t="n">
-        <v>79.65384678970705</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K19" t="n">
-        <v>274.6725740832013</v>
+        <v>371.3804471090252</v>
       </c>
       <c r="L19" t="n">
-        <v>505.9475671746745</v>
+        <v>623.7981640572063</v>
       </c>
       <c r="M19" t="n">
-        <v>673.3800484738722</v>
+        <v>791.2306453564041</v>
       </c>
       <c r="N19" t="n">
-        <v>941.3967585295436</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O19" t="n">
-        <v>1176.022980773557</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P19" t="n">
-        <v>1371.68185655214</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q19" t="n">
-        <v>1481.310496936504</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R19" t="n">
-        <v>1489.975538818982</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S19" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T19" t="n">
-        <v>1273.865908363021</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U19" t="n">
-        <v>1083.434476062508</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V19" t="n">
-        <v>927.421422430465</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W19" t="n">
-        <v>736.6756869673479</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X19" t="n">
-        <v>607.3575706431742</v>
+        <v>607.3575706431752</v>
       </c>
       <c r="Y19" t="n">
-        <v>485.2364260734876</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="20">
@@ -5738,31 +5738,31 @@
         <v>894.1397680464969</v>
       </c>
       <c r="F20" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G20" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939506</v>
@@ -5771,31 +5771,31 @@
         <v>3018.302393296684</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3313.986587710107</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T20" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U20" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V20" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W20" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X20" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y20" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.2593958170914</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C22" t="n">
-        <v>331.9946474630281</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D22" t="n">
-        <v>280.5494426245359</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E22" t="n">
-        <v>231.3077836159864</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F22" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G22" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218338</v>
+        <v>67.83109325226759</v>
       </c>
       <c r="J22" t="n">
-        <v>175.0427429954468</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K22" t="n">
-        <v>370.0614702889411</v>
+        <v>371.3804471090252</v>
       </c>
       <c r="L22" t="n">
-        <v>525.7713142112982</v>
+        <v>623.7981640572062</v>
       </c>
       <c r="M22" t="n">
-        <v>778.7529633821734</v>
+        <v>887.9385183822278</v>
       </c>
       <c r="N22" t="n">
-        <v>1046.769673437845</v>
+        <v>1059.247355412075</v>
       </c>
       <c r="O22" t="n">
-        <v>1281.395895681859</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P22" t="n">
-        <v>1380.346898434617</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q22" t="n">
-        <v>1489.975538818982</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.975538818982</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S22" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T22" t="n">
-        <v>1273.865908363021</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U22" t="n">
-        <v>1083.434476062508</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V22" t="n">
-        <v>927.421422430465</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W22" t="n">
-        <v>736.6756869673479</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X22" t="n">
-        <v>607.3575706431742</v>
+        <v>607.3575706431752</v>
       </c>
       <c r="Y22" t="n">
-        <v>485.2364260734876</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C23" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D23" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464983</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307343</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G23" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H23" t="n">
         <v>66.5121164321834</v>
@@ -5990,13 +5990,13 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6005,7 +6005,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2593958170914</v>
+        <v>402.2593958170922</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630281</v>
+        <v>331.9946474630287</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245359</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159864</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F25" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H25" t="n">
         <v>66.5121164321834</v>
@@ -6145,52 +6145,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962283</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K25" t="n">
-        <v>262.19489210897</v>
+        <v>370.061470288941</v>
       </c>
       <c r="L25" t="n">
-        <v>514.6126090571512</v>
+        <v>622.4791872371221</v>
       </c>
       <c r="M25" t="n">
-        <v>682.045090356349</v>
+        <v>886.6195415621438</v>
       </c>
       <c r="N25" t="n">
-        <v>950.0618004120205</v>
+        <v>1154.636251617815</v>
       </c>
       <c r="O25" t="n">
-        <v>1184.688022656034</v>
+        <v>1378.103768707684</v>
       </c>
       <c r="P25" t="n">
-        <v>1380.346898434617</v>
+        <v>1477.054771460443</v>
       </c>
       <c r="Q25" t="n">
-        <v>1489.975538818982</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R25" t="n">
-        <v>1489.975538818982</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S25" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T25" t="n">
-        <v>1273.865908363021</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.434476062508</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V25" t="n">
-        <v>927.421422430465</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W25" t="n">
-        <v>736.6756869673479</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431742</v>
+        <v>607.3575706431752</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734876</v>
+        <v>485.2364260734885</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1786.788719824235</v>
+        <v>1786.788719824234</v>
       </c>
       <c r="C26" t="n">
         <v>1504.462921287734</v>
@@ -6209,19 +6209,19 @@
         <v>1232.833941084894</v>
       </c>
       <c r="E26" t="n">
-        <v>933.6824068905612</v>
+        <v>933.6824068905607</v>
       </c>
       <c r="F26" t="n">
-        <v>609.3332205048646</v>
+        <v>609.3332205048641</v>
       </c>
       <c r="G26" t="n">
-        <v>280.8974887537716</v>
+        <v>280.8974887537718</v>
       </c>
       <c r="H26" t="n">
-        <v>69.95060676644981</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="I26" t="n">
-        <v>69.95060676644981</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="J26" t="n">
         <v>258.8297377254752</v>
@@ -6230,37 +6230,37 @@
         <v>592.6491114153216</v>
       </c>
       <c r="L26" t="n">
-        <v>1043.68332466373</v>
+        <v>1127.256703335113</v>
       </c>
       <c r="M26" t="n">
-        <v>1577.215229335654</v>
+        <v>1745.70125571471</v>
       </c>
       <c r="N26" t="n">
-        <v>2123.994046394437</v>
+        <v>2292.480072773492</v>
       </c>
       <c r="O26" t="n">
-        <v>2710.539895945155</v>
+        <v>2795.452543652829</v>
       </c>
       <c r="P26" t="n">
-        <v>3105.314262302333</v>
+        <v>3190.226910010007</v>
       </c>
       <c r="Q26" t="n">
-        <v>3353.600624058015</v>
+        <v>3438.513271765689</v>
       </c>
       <c r="R26" t="n">
-        <v>3497.53033832249</v>
+        <v>3497.530338322492</v>
       </c>
       <c r="S26" t="n">
-        <v>3473.876388253497</v>
+        <v>3473.876388253498</v>
       </c>
       <c r="T26" t="n">
-        <v>3354.53535904163</v>
+        <v>3354.535359041631</v>
       </c>
       <c r="U26" t="n">
-        <v>3187.641600719377</v>
+        <v>3187.641600719378</v>
       </c>
       <c r="V26" t="n">
-        <v>2943.215431779718</v>
+        <v>2943.215431779719</v>
       </c>
       <c r="W26" t="n">
         <v>2677.083494913515</v>
@@ -6297,10 +6297,10 @@
         <v>179.4597927270444</v>
       </c>
       <c r="H27" t="n">
-        <v>88.95789836491187</v>
+        <v>88.9578983649119</v>
       </c>
       <c r="I27" t="n">
-        <v>69.95060676644981</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="J27" t="n">
         <v>163.6278762570671</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>488.5951419486969</v>
+        <v>488.5951419486977</v>
       </c>
       <c r="C28" t="n">
-        <v>406.295677424701</v>
+        <v>406.2956774247017</v>
       </c>
       <c r="D28" t="n">
-        <v>342.8157564162763</v>
+        <v>342.8157564162768</v>
       </c>
       <c r="E28" t="n">
-        <v>281.5393812377941</v>
+        <v>281.5393812377946</v>
       </c>
       <c r="F28" t="n">
-        <v>221.2861521437948</v>
+        <v>221.2861521437951</v>
       </c>
       <c r="G28" t="n">
-        <v>140.2200339224247</v>
+        <v>140.2200339224249</v>
       </c>
       <c r="H28" t="n">
-        <v>80.63956554419347</v>
+        <v>80.63956554419362</v>
       </c>
       <c r="I28" t="n">
-        <v>69.95060676644981</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="J28" t="n">
-        <v>166.6860080115624</v>
+        <v>166.6860080115623</v>
       </c>
       <c r="K28" t="n">
-        <v>349.9095099869059</v>
+        <v>422.0655853216804</v>
       </c>
       <c r="L28" t="n">
-        <v>590.5320016169362</v>
+        <v>662.6880769517106</v>
       </c>
       <c r="M28" t="n">
-        <v>915.0332059585796</v>
+        <v>915.0332059585814</v>
       </c>
       <c r="N28" t="n">
-        <v>1171.2546906961</v>
+        <v>1171.254690696102</v>
       </c>
       <c r="O28" t="n">
-        <v>1394.085687621963</v>
+        <v>1394.085687621965</v>
       </c>
       <c r="P28" t="n">
-        <v>1577.949338082395</v>
+        <v>1577.949338082396</v>
       </c>
       <c r="Q28" t="n">
-        <v>1675.782753148609</v>
+        <v>1675.78275314861</v>
       </c>
       <c r="R28" t="n">
-        <v>1672.589014310048</v>
+        <v>1672.589014310049</v>
       </c>
       <c r="S28" t="n">
-        <v>1567.539848540785</v>
+        <v>1567.539848540786</v>
       </c>
       <c r="T28" t="n">
-        <v>1432.409951514222</v>
+        <v>1432.409951514223</v>
       </c>
       <c r="U28" t="n">
-        <v>1229.943803043777</v>
+        <v>1229.943803043778</v>
       </c>
       <c r="V28" t="n">
-        <v>1061.896033241801</v>
+        <v>1061.896033241802</v>
       </c>
       <c r="W28" t="n">
-        <v>859.1155816087511</v>
+        <v>859.1155816087522</v>
       </c>
       <c r="X28" t="n">
-        <v>717.7627491146447</v>
+        <v>717.7627491146458</v>
       </c>
       <c r="Y28" t="n">
-        <v>583.6068883750256</v>
+        <v>583.6068883750265</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>1786.788719824234</v>
       </c>
       <c r="C29" t="n">
-        <v>1504.462921287733</v>
+        <v>1504.462921287734</v>
       </c>
       <c r="D29" t="n">
         <v>1232.833941084894</v>
@@ -6449,64 +6449,64 @@
         <v>933.6824068905607</v>
       </c>
       <c r="F29" t="n">
-        <v>609.3332205048642</v>
+        <v>609.3332205048641</v>
       </c>
       <c r="G29" t="n">
-        <v>280.8974887537716</v>
+        <v>280.8974887537718</v>
       </c>
       <c r="H29" t="n">
-        <v>69.95060676644981</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="I29" t="n">
-        <v>113.7020939989262</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="J29" t="n">
-        <v>302.5812249579516</v>
+        <v>258.8297377254753</v>
       </c>
       <c r="K29" t="n">
-        <v>636.400598647798</v>
+        <v>592.6491114153218</v>
       </c>
       <c r="L29" t="n">
-        <v>1087.434811896207</v>
+        <v>1043.683324663731</v>
       </c>
       <c r="M29" t="n">
-        <v>1620.966716568131</v>
+        <v>1577.215229335655</v>
       </c>
       <c r="N29" t="n">
-        <v>2252.658181334586</v>
+        <v>2123.994046394438</v>
       </c>
       <c r="O29" t="n">
-        <v>2795.452543652827</v>
+        <v>2710.539895945156</v>
       </c>
       <c r="P29" t="n">
-        <v>3190.226910010005</v>
+        <v>3190.226910010007</v>
       </c>
       <c r="Q29" t="n">
-        <v>3438.513271765687</v>
+        <v>3438.513271765689</v>
       </c>
       <c r="R29" t="n">
-        <v>3497.53033832249</v>
+        <v>3497.530338322492</v>
       </c>
       <c r="S29" t="n">
-        <v>3473.876388253496</v>
+        <v>3473.876388253498</v>
       </c>
       <c r="T29" t="n">
-        <v>3354.53535904163</v>
+        <v>3354.535359041631</v>
       </c>
       <c r="U29" t="n">
-        <v>3187.641600719377</v>
+        <v>3187.641600719378</v>
       </c>
       <c r="V29" t="n">
         <v>2943.215431779718</v>
       </c>
       <c r="W29" t="n">
-        <v>2677.083494913514</v>
+        <v>2677.083494913515</v>
       </c>
       <c r="X29" t="n">
-        <v>2390.254455056345</v>
+        <v>2390.254455056346</v>
       </c>
       <c r="Y29" t="n">
-        <v>2086.751841484444</v>
+        <v>2086.751841484445</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6516,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>944.9823448153751</v>
+        <v>944.9823448153752</v>
       </c>
       <c r="C30" t="n">
-        <v>770.5293155342481</v>
+        <v>770.5293155342482</v>
       </c>
       <c r="D30" t="n">
-        <v>621.5949058729968</v>
+        <v>621.5949058729971</v>
       </c>
       <c r="E30" t="n">
-        <v>462.3574508675413</v>
+        <v>462.3574508675415</v>
       </c>
       <c r="F30" t="n">
-        <v>315.8228928944263</v>
+        <v>315.8228928944266</v>
       </c>
       <c r="G30" t="n">
-        <v>179.4597927270444</v>
+        <v>179.4597927270452</v>
       </c>
       <c r="H30" t="n">
-        <v>88.95789836491187</v>
+        <v>88.95789836491271</v>
       </c>
       <c r="I30" t="n">
-        <v>69.95060676644981</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="J30" t="n">
-        <v>163.6278762570671</v>
+        <v>163.6278762570676</v>
       </c>
       <c r="K30" t="n">
-        <v>401.8920752374142</v>
+        <v>401.8920752374146</v>
       </c>
       <c r="L30" t="n">
-        <v>768.5902355500795</v>
+        <v>768.59023555008</v>
       </c>
       <c r="M30" t="n">
-        <v>1215.866560772395</v>
+        <v>1215.866560772396</v>
       </c>
       <c r="N30" t="n">
-        <v>1689.38960432685</v>
+        <v>1689.389604326851</v>
       </c>
       <c r="O30" t="n">
-        <v>2100.350883744904</v>
+        <v>2100.350883744905</v>
       </c>
       <c r="P30" t="n">
-        <v>2410.850475221007</v>
+        <v>2410.850475221008</v>
       </c>
       <c r="Q30" t="n">
-        <v>2568.492032867607</v>
+        <v>2568.492032867608</v>
       </c>
       <c r="R30" t="n">
         <v>2568.347679460123</v>
@@ -6570,13 +6570,13 @@
         <v>2438.909792953603</v>
       </c>
       <c r="T30" t="n">
-        <v>2246.266792631458</v>
+        <v>2246.266792631459</v>
       </c>
       <c r="U30" t="n">
         <v>2018.198945765874</v>
       </c>
       <c r="V30" t="n">
-        <v>1783.046837534131</v>
+        <v>1783.046837534132</v>
       </c>
       <c r="W30" t="n">
         <v>1528.80948080593</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>488.5951419486969</v>
+        <v>488.5951419486977</v>
       </c>
       <c r="C31" t="n">
-        <v>406.295677424701</v>
+        <v>406.2956774247017</v>
       </c>
       <c r="D31" t="n">
-        <v>342.8157564162763</v>
+        <v>342.8157564162768</v>
       </c>
       <c r="E31" t="n">
-        <v>281.5393812377941</v>
+        <v>281.5393812377946</v>
       </c>
       <c r="F31" t="n">
-        <v>221.2861521437948</v>
+        <v>221.2861521437951</v>
       </c>
       <c r="G31" t="n">
-        <v>140.2200339224247</v>
+        <v>140.2200339224249</v>
       </c>
       <c r="H31" t="n">
-        <v>80.63956554419347</v>
+        <v>80.6395655441936</v>
       </c>
       <c r="I31" t="n">
-        <v>69.95060676644981</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="J31" t="n">
-        <v>166.6860080115624</v>
+        <v>199.9858869210585</v>
       </c>
       <c r="K31" t="n">
-        <v>349.9095099869059</v>
+        <v>383.2093888964019</v>
       </c>
       <c r="L31" t="n">
-        <v>662.6880769517087</v>
+        <v>623.8318805264322</v>
       </c>
       <c r="M31" t="n">
-        <v>915.0332059585796</v>
+        <v>876.177009533303</v>
       </c>
       <c r="N31" t="n">
-        <v>1171.2546906961</v>
+        <v>1132.398494270824</v>
       </c>
       <c r="O31" t="n">
-        <v>1394.085687621963</v>
+        <v>1355.229491196686</v>
       </c>
       <c r="P31" t="n">
-        <v>1577.949338082395</v>
+        <v>1539.093141657118</v>
       </c>
       <c r="Q31" t="n">
-        <v>1675.782753148609</v>
+        <v>1675.78275314861</v>
       </c>
       <c r="R31" t="n">
-        <v>1672.589014310048</v>
+        <v>1672.589014310049</v>
       </c>
       <c r="S31" t="n">
-        <v>1567.539848540785</v>
+        <v>1567.539848540786</v>
       </c>
       <c r="T31" t="n">
-        <v>1432.409951514222</v>
+        <v>1432.409951514223</v>
       </c>
       <c r="U31" t="n">
-        <v>1229.943803043777</v>
+        <v>1229.943803043778</v>
       </c>
       <c r="V31" t="n">
-        <v>1061.896033241801</v>
+        <v>1061.896033241802</v>
       </c>
       <c r="W31" t="n">
-        <v>859.1155816087511</v>
+        <v>859.1155816087522</v>
       </c>
       <c r="X31" t="n">
-        <v>717.7627491146447</v>
+        <v>717.7627491146458</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.6068883750256</v>
+        <v>583.6068883750265</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1786.788719824234</v>
+        <v>1786.788719824235</v>
       </c>
       <c r="C32" t="n">
-        <v>1504.462921287733</v>
+        <v>1504.462921287734</v>
       </c>
       <c r="D32" t="n">
-        <v>1232.833941084893</v>
+        <v>1232.833941084894</v>
       </c>
       <c r="E32" t="n">
-        <v>933.6824068905603</v>
+        <v>933.682406890561</v>
       </c>
       <c r="F32" t="n">
-        <v>609.3332205048639</v>
+        <v>609.3332205048644</v>
       </c>
       <c r="G32" t="n">
-        <v>280.8974887537716</v>
+        <v>280.8974887537717</v>
       </c>
       <c r="H32" t="n">
-        <v>69.95060676644981</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="I32" t="n">
-        <v>69.95060676644981</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="J32" t="n">
         <v>258.8297377254752</v>
@@ -6710,40 +6710,40 @@
         <v>1577.215229335654</v>
       </c>
       <c r="N32" t="n">
-        <v>2207.567425065818</v>
+        <v>2123.994046394437</v>
       </c>
       <c r="O32" t="n">
-        <v>2795.452543652827</v>
+        <v>2626.966517273774</v>
       </c>
       <c r="P32" t="n">
-        <v>3190.226910010005</v>
+        <v>3021.740883630951</v>
       </c>
       <c r="Q32" t="n">
-        <v>3438.513271765687</v>
+        <v>3353.600624058016</v>
       </c>
       <c r="R32" t="n">
-        <v>3497.53033832249</v>
+        <v>3497.530338322492</v>
       </c>
       <c r="S32" t="n">
-        <v>3473.876388253496</v>
+        <v>3473.876388253498</v>
       </c>
       <c r="T32" t="n">
-        <v>3354.535359041629</v>
+        <v>3354.535359041631</v>
       </c>
       <c r="U32" t="n">
-        <v>3187.641600719377</v>
+        <v>3187.641600719378</v>
       </c>
       <c r="V32" t="n">
-        <v>2943.215431779717</v>
+        <v>2943.215431779719</v>
       </c>
       <c r="W32" t="n">
-        <v>2677.083494913514</v>
+        <v>2677.083494913515</v>
       </c>
       <c r="X32" t="n">
-        <v>2390.254455056345</v>
+        <v>2390.254455056346</v>
       </c>
       <c r="Y32" t="n">
-        <v>2086.751841484444</v>
+        <v>2086.751841484445</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>179.4597927270444</v>
       </c>
       <c r="H33" t="n">
-        <v>88.95789836491187</v>
+        <v>88.9578983649119</v>
       </c>
       <c r="I33" t="n">
-        <v>69.95060676644981</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="J33" t="n">
         <v>163.6278762570671</v>
@@ -6795,10 +6795,10 @@
         <v>2100.350883744904</v>
       </c>
       <c r="P33" t="n">
-        <v>2410.850475221007</v>
+        <v>2410.850475221008</v>
       </c>
       <c r="Q33" t="n">
-        <v>2568.492032867607</v>
+        <v>2568.492032867608</v>
       </c>
       <c r="R33" t="n">
         <v>2568.347679460123</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>488.5951419486966</v>
+        <v>488.5951419486973</v>
       </c>
       <c r="C34" t="n">
-        <v>406.2956774247007</v>
+        <v>406.2956774247014</v>
       </c>
       <c r="D34" t="n">
-        <v>342.815756416276</v>
+        <v>342.8157564162765</v>
       </c>
       <c r="E34" t="n">
-        <v>281.539381237794</v>
+        <v>281.5393812377944</v>
       </c>
       <c r="F34" t="n">
-        <v>221.2861521437947</v>
+        <v>221.2861521437949</v>
       </c>
       <c r="G34" t="n">
-        <v>140.2200339224246</v>
+        <v>140.2200339224248</v>
       </c>
       <c r="H34" t="n">
-        <v>80.63956554419345</v>
+        <v>80.63956554419356</v>
       </c>
       <c r="I34" t="n">
-        <v>69.95060676644981</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="J34" t="n">
         <v>166.6860080115624</v>
       </c>
       <c r="K34" t="n">
-        <v>349.909509986906</v>
+        <v>349.9095099869058</v>
       </c>
       <c r="L34" t="n">
-        <v>590.5320016169363</v>
+        <v>590.5320016169361</v>
       </c>
       <c r="M34" t="n">
-        <v>915.0332059585792</v>
+        <v>915.0332059585808</v>
       </c>
       <c r="N34" t="n">
-        <v>1171.2546906961</v>
+        <v>1171.254690696101</v>
       </c>
       <c r="O34" t="n">
-        <v>1394.085687621963</v>
+        <v>1394.085687621964</v>
       </c>
       <c r="P34" t="n">
-        <v>1577.949338082394</v>
+        <v>1577.949338082396</v>
       </c>
       <c r="Q34" t="n">
-        <v>1675.782753148608</v>
+        <v>1675.78275314861</v>
       </c>
       <c r="R34" t="n">
-        <v>1672.589014310047</v>
+        <v>1672.589014310048</v>
       </c>
       <c r="S34" t="n">
-        <v>1567.539848540785</v>
+        <v>1567.539848540786</v>
       </c>
       <c r="T34" t="n">
-        <v>1432.409951514222</v>
+        <v>1432.409951514223</v>
       </c>
       <c r="U34" t="n">
-        <v>1229.943803043776</v>
+        <v>1229.943803043777</v>
       </c>
       <c r="V34" t="n">
-        <v>1061.8960332418</v>
+        <v>1061.896033241801</v>
       </c>
       <c r="W34" t="n">
-        <v>859.1155816087506</v>
+        <v>859.1155816087517</v>
       </c>
       <c r="X34" t="n">
-        <v>717.7627491146443</v>
+        <v>717.7627491146452</v>
       </c>
       <c r="Y34" t="n">
-        <v>583.6068883750253</v>
+        <v>583.6068883750261</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464983</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307341</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218332</v>
+        <v>66.51211643218326</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
         <v>618.1564155387305</v>
@@ -7002,46 +7002,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170923</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F37" t="n">
         <v>183.0892706919198</v>
@@ -7087,37 +7087,37 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
-        <v>163.8840378413019</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K37" t="n">
-        <v>358.9027651347962</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L37" t="n">
-        <v>514.6126090571535</v>
+        <v>622.4791872371222</v>
       </c>
       <c r="M37" t="n">
-        <v>682.0450903563512</v>
+        <v>886.6195415621439</v>
       </c>
       <c r="N37" t="n">
-        <v>950.0618004120226</v>
+        <v>1143.47754646367</v>
       </c>
       <c r="O37" t="n">
-        <v>1184.688022656036</v>
+        <v>1281.39589568186</v>
       </c>
       <c r="P37" t="n">
-        <v>1380.346898434619</v>
+        <v>1477.054771460442</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S37" t="n">
         <v>1396.961089219653</v>
@@ -7126,19 +7126,19 @@
         <v>1273.865908363023</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304662</v>
+        <v>927.421422430466</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673488</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431752</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,25 +7157,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7187,7 +7187,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296685</v>
@@ -7202,7 +7202,7 @@
         <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515854</v>
@@ -7211,10 +7211,10 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7245,10 +7245,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7275,28 +7275,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170922</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630287</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226761</v>
+        <v>67.83109325226764</v>
       </c>
       <c r="J40" t="n">
-        <v>79.65384678970703</v>
+        <v>79.65384678970706</v>
       </c>
       <c r="K40" t="n">
-        <v>274.6725740832013</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L40" t="n">
-        <v>527.0902910313824</v>
+        <v>430.3824180055586</v>
       </c>
       <c r="M40" t="n">
-        <v>791.2306453564041</v>
+        <v>682.0450903563508</v>
       </c>
       <c r="N40" t="n">
-        <v>1059.247355412076</v>
+        <v>950.0618004120222</v>
       </c>
       <c r="O40" t="n">
-        <v>1293.873577656089</v>
+        <v>1184.688022656036</v>
       </c>
       <c r="P40" t="n">
-        <v>1468.389729577966</v>
+        <v>1380.346898434618</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S40" t="n">
         <v>1396.961089219653</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431752</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734885</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="41">
@@ -7394,55 +7394,55 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307335</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
         <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746127</v>
@@ -7485,31 +7485,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7543,58 +7543,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170917</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630283</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245361</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159865</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>67.83109325226766</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962283</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K43" t="n">
-        <v>273.3535972631172</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L43" t="n">
-        <v>525.7713142112984</v>
+        <v>430.3824180055586</v>
       </c>
       <c r="M43" t="n">
-        <v>789.9116685363201</v>
+        <v>694.5227723305802</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.928378591992</v>
+        <v>962.5394823862516</v>
       </c>
       <c r="O43" t="n">
-        <v>1292.554600836005</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P43" t="n">
-        <v>1477.054771460442</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R43" t="n">
         <v>1489.975538818983</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T43" t="n">
         <v>1273.865908363022</v>
@@ -7603,16 +7603,16 @@
         <v>1083.434476062509</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304656</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673484</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431745</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734879</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464966</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7658,37 +7658,37 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
         <v>1999.070337960651</v>
@@ -7719,34 +7719,34 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170917</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630283</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245361</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159865</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>67.83109325226768</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>176.3617198155311</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K46" t="n">
-        <v>274.6725740832014</v>
+        <v>358.9027651347959</v>
       </c>
       <c r="L46" t="n">
-        <v>527.0902910313827</v>
+        <v>611.320482082977</v>
       </c>
       <c r="M46" t="n">
-        <v>791.2306453564045</v>
+        <v>875.4608364079987</v>
       </c>
       <c r="N46" t="n">
-        <v>1059.247355412076</v>
+        <v>1046.769673437846</v>
       </c>
       <c r="O46" t="n">
-        <v>1293.87357765609</v>
+        <v>1184.688022656036</v>
       </c>
       <c r="P46" t="n">
-        <v>1392.824580408848</v>
+        <v>1380.346898434618</v>
       </c>
       <c r="Q46" t="n">
-        <v>1481.310496936505</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="R46" t="n">
         <v>1489.975538818983</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T46" t="n">
         <v>1273.865908363022</v>
@@ -7840,16 +7840,16 @@
         <v>1083.434476062509</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304656</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673484</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431745</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734879</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
   </sheetData>
@@ -10033,13 +10033,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>72.88492458058053</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>72.88492458057829</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -10267,13 +10267,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>72.88492458057823</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -10288,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>39.24868325785684</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>72.88492458057769</v>
+        <v>72.88492458057959</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>210.0237331178824</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>342.7686726124497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>394.9616767334782</v>
+        <v>5.312599381398833</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.27339277994263</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>192.0036011313869</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>315.8378894619017</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>337.3265997091798</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167.9176111737041</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>155.3324520903946</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>136.7011040099791</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>134.5195936383359</v>
       </c>
       <c r="F13" t="n">
         <v>133.506679014698</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>114.3610846282286</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>159.2013368124304</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>213.7952863808039</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>370.8194726552474</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>353.3585227627743</v>
       </c>
       <c r="D14" t="n">
-        <v>342.7686726124497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.009959232420338</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>29.66256076469276</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>97.27339277994263</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>315.8378894619017</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>214.0241840983115</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>357.8167316702358</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>374.3235696478204</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>167.9176111737041</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>47.29186486619453</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.506679014698</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>154.111439250795</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>132.8406459060876</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>84.43805140160489</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>77.01778366181414</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>207.634580267936</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>274.2974691973797</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>186.0270878060356</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>206.6702843438616</v>
       </c>
     </row>
     <row r="17">
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.784881605444335e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>946772.7681068402</v>
+        <v>946772.7681068403</v>
       </c>
     </row>
     <row r="7">
@@ -26317,43 +26317,43 @@
         <v>348192.4439547413</v>
       </c>
       <c r="D2" t="n">
-        <v>348195.0867461602</v>
+        <v>348195.0867461599</v>
       </c>
       <c r="E2" t="n">
+        <v>298790.771182756</v>
+      </c>
+      <c r="F2" t="n">
         <v>298790.7711827559</v>
       </c>
-      <c r="F2" t="n">
-        <v>298790.7711827558</v>
-      </c>
       <c r="G2" t="n">
+        <v>348942.7521923211</v>
+      </c>
+      <c r="H2" t="n">
         <v>348942.7521923209</v>
       </c>
-      <c r="H2" t="n">
-        <v>348942.7521923208</v>
-      </c>
       <c r="I2" t="n">
-        <v>348942.7521923208</v>
+        <v>348942.7521923209</v>
       </c>
       <c r="J2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="K2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="L2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923207</v>
       </c>
       <c r="M2" t="n">
-        <v>348942.7521923208</v>
+        <v>348942.7521923209</v>
       </c>
       <c r="N2" t="n">
-        <v>348942.7521923211</v>
+        <v>348942.752192321</v>
       </c>
       <c r="O2" t="n">
-        <v>348942.7521923211</v>
+        <v>348942.752192321</v>
       </c>
       <c r="P2" t="n">
-        <v>348942.7521923212</v>
+        <v>348942.7521923209</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>16642.08507315446</v>
+        <v>16642.08507315578</v>
       </c>
       <c r="E3" t="n">
-        <v>1117687.589588135</v>
+        <v>1117687.589588134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>68616.28097589733</v>
+        <v>68616.28097589742</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>11245.754562735</v>
+        <v>11245.75456273509</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68616.28097589753</v>
+        <v>68616.28097589746</v>
       </c>
       <c r="M3" t="n">
-        <v>206008.9941829029</v>
+        <v>206008.9941829028</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>460842.8736226517</v>
+        <v>460842.8736226512</v>
       </c>
       <c r="E4" t="n">
         <v>27909.85740473188</v>
       </c>
       <c r="F4" t="n">
-        <v>27909.85740473189</v>
+        <v>27909.85740473188</v>
       </c>
       <c r="G4" t="n">
-        <v>93774.13782657718</v>
+        <v>93774.13782657705</v>
       </c>
       <c r="H4" t="n">
-        <v>93774.13782657718</v>
+        <v>93774.13782657706</v>
       </c>
       <c r="I4" t="n">
-        <v>93774.13782657712</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="J4" t="n">
-        <v>94100.04165292099</v>
+        <v>94100.04165292095</v>
       </c>
       <c r="K4" t="n">
-        <v>94100.04165292098</v>
+        <v>94100.04165292089</v>
       </c>
       <c r="L4" t="n">
         <v>94100.04165292098</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657706</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.13782657706</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.13782657709</v>
+        <v>93774.13782657706</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657711</v>
+        <v>93774.13782657706</v>
       </c>
     </row>
     <row r="5">
@@ -26473,34 +26473,34 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34051.22391856598</v>
+        <v>34051.22391856601</v>
       </c>
       <c r="E5" t="n">
-        <v>75307.96964954646</v>
+        <v>75307.96964954644</v>
       </c>
       <c r="F5" t="n">
-        <v>75307.96964954643</v>
+        <v>75307.96964954644</v>
       </c>
       <c r="G5" t="n">
-        <v>82518.59730624982</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="H5" t="n">
-        <v>82518.59730624982</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="I5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="J5" t="n">
-        <v>84130.22087213915</v>
+        <v>84130.22087213918</v>
       </c>
       <c r="K5" t="n">
-        <v>84130.22087213915</v>
+        <v>84130.22087213918</v>
       </c>
       <c r="L5" t="n">
-        <v>84130.22087213915</v>
+        <v>84130.22087213918</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624984</v>
@@ -26509,7 +26509,7 @@
         <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-153051.1159769899</v>
+        <v>-153055.529554858</v>
       </c>
       <c r="C6" t="n">
-        <v>-153051.1159769899</v>
+        <v>-153055.529554858</v>
       </c>
       <c r="D6" t="n">
-        <v>-163341.095868212</v>
+        <v>-163345.4939002493</v>
       </c>
       <c r="E6" t="n">
-        <v>-922114.6454596572</v>
+        <v>-922409.6571126535</v>
       </c>
       <c r="F6" t="n">
-        <v>195572.9441284774</v>
+        <v>195277.9324754802</v>
       </c>
       <c r="G6" t="n">
-        <v>104033.7360835966</v>
+        <v>104033.7360835968</v>
       </c>
       <c r="H6" t="n">
-        <v>172650.0170594938</v>
+        <v>172650.0170594942</v>
       </c>
       <c r="I6" t="n">
-        <v>172650.0170594935</v>
+        <v>172650.0170594939</v>
       </c>
       <c r="J6" t="n">
         <v>159466.7351045253</v>
@@ -26549,19 +26549,19 @@
         <v>170712.4896672603</v>
       </c>
       <c r="L6" t="n">
-        <v>102096.2086913628</v>
+        <v>102096.2086913631</v>
       </c>
       <c r="M6" t="n">
-        <v>-33358.97712340901</v>
+        <v>-33358.97712340875</v>
       </c>
       <c r="N6" t="n">
-        <v>172650.0170594942</v>
+        <v>172650.0170594941</v>
       </c>
       <c r="O6" t="n">
+        <v>172650.0170594941</v>
+      </c>
+      <c r="P6" t="n">
         <v>172650.017059494</v>
-      </c>
-      <c r="P6" t="n">
-        <v>172650.0170594942</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="F2" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H2" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I2" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="J2" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="K2" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="L2" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.43228984247625</v>
+        <v>19.43228984247779</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26799,37 +26799,37 @@
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>874.3825845806226</v>
+        <v>874.382584580623</v>
       </c>
       <c r="K4" t="n">
-        <v>874.3825845806225</v>
+        <v>874.382584580623</v>
       </c>
       <c r="L4" t="n">
-        <v>874.3825845806225</v>
+        <v>874.382584580623</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="M2" t="n">
-        <v>11.91436900823307</v>
+        <v>11.91436900823318</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.43228984247625</v>
+        <v>19.43228984247779</v>
       </c>
       <c r="E3" t="n">
-        <v>1070.344410750822</v>
+        <v>1070.34441075082</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.202073660032603e-15</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>42.98112917833009</v>
+        <v>42.98112917833043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>788.4203262239629</v>
+        <v>788.4203262239621</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27868,43 +27868,43 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.6747581425038</v>
+        <v>338.6747581425037</v>
       </c>
       <c r="I8" t="n">
-        <v>207.4641775939152</v>
+        <v>207.464177593915</v>
       </c>
       <c r="J8" t="n">
-        <v>174.4155877024938</v>
+        <v>174.4155877024933</v>
       </c>
       <c r="K8" t="n">
-        <v>210.1527248578453</v>
+        <v>210.1527248578445</v>
       </c>
       <c r="L8" t="n">
-        <v>223.4385312340412</v>
+        <v>223.4385312340403</v>
       </c>
       <c r="M8" t="n">
-        <v>216.6290872421362</v>
+        <v>216.6290872421351</v>
       </c>
       <c r="N8" t="n">
-        <v>215.4739598485803</v>
+        <v>215.4739598485792</v>
       </c>
       <c r="O8" t="n">
-        <v>216.9359110188867</v>
+        <v>216.9359110188856</v>
       </c>
       <c r="P8" t="n">
-        <v>219.999276882062</v>
+        <v>219.9992768820611</v>
       </c>
       <c r="Q8" t="n">
-        <v>213.8696348403723</v>
+        <v>213.8696348403716</v>
       </c>
       <c r="R8" t="n">
-        <v>210.6783475555695</v>
+        <v>210.6783475555691</v>
       </c>
       <c r="S8" t="n">
-        <v>207.2399155971582</v>
+        <v>207.239915597158</v>
       </c>
       <c r="T8" t="n">
-        <v>222.7538803227829</v>
+        <v>222.7538803227828</v>
       </c>
       <c r="U8" t="n">
         <v>251.3394033271836</v>
@@ -27950,37 +27950,37 @@
         <v>111.8317659135424</v>
       </c>
       <c r="I9" t="n">
-        <v>98.08329061072227</v>
+        <v>98.08329061072216</v>
       </c>
       <c r="J9" t="n">
-        <v>122.8886553883952</v>
+        <v>122.8886553883949</v>
       </c>
       <c r="K9" t="n">
-        <v>131.0920180769019</v>
+        <v>131.0920180769014</v>
       </c>
       <c r="L9" t="n">
-        <v>129.4789504529705</v>
+        <v>129.4789504529698</v>
       </c>
       <c r="M9" t="n">
-        <v>131.5434359578688</v>
+        <v>131.5434359578679</v>
       </c>
       <c r="N9" t="n">
-        <v>120.4708125043805</v>
+        <v>120.4708125043796</v>
       </c>
       <c r="O9" t="n">
-        <v>132.6514951323236</v>
+        <v>132.6514951323228</v>
       </c>
       <c r="P9" t="n">
-        <v>125.9928693467667</v>
+        <v>125.9928693467661</v>
       </c>
       <c r="Q9" t="n">
-        <v>134.6463272598382</v>
+        <v>134.6463272598378</v>
       </c>
       <c r="R9" t="n">
-        <v>143.084376652548</v>
+        <v>143.0843766525478</v>
       </c>
       <c r="S9" t="n">
-        <v>170.9067961275842</v>
+        <v>170.9067961275841</v>
       </c>
       <c r="T9" t="n">
         <v>199.9962544083571</v>
@@ -28029,40 +28029,40 @@
         <v>161.9156187457028</v>
       </c>
       <c r="I10" t="n">
-        <v>154.3966714059647</v>
+        <v>154.3966714059646</v>
       </c>
       <c r="J10" t="n">
-        <v>124.5179637655447</v>
+        <v>124.5179637655445</v>
       </c>
       <c r="K10" t="n">
-        <v>124.9420341674723</v>
+        <v>124.942034167472</v>
       </c>
       <c r="L10" t="n">
-        <v>129.6749112306833</v>
+        <v>129.6749112306829</v>
       </c>
       <c r="M10" t="n">
-        <v>133.4328171647556</v>
+        <v>133.4328171647551</v>
       </c>
       <c r="N10" t="n">
-        <v>122.3231881550954</v>
+        <v>122.323188155095</v>
       </c>
       <c r="O10" t="n">
-        <v>133.5035344769113</v>
+        <v>133.5035344769109</v>
       </c>
       <c r="P10" t="n">
-        <v>133.4898534907164</v>
+        <v>133.4898534907161</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.5707258632319</v>
+        <v>148.5707258632317</v>
       </c>
       <c r="R10" t="n">
-        <v>175.7177830892861</v>
+        <v>175.7177830892859</v>
       </c>
       <c r="S10" t="n">
-        <v>223.4059144365128</v>
+        <v>223.4059144365127</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7958652278559</v>
+        <v>227.7958652278558</v>
       </c>
       <c r="U10" t="n">
         <v>286.3171179837195</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="C11" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="D11" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="E11" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="F11" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="G11" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="H11" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="I11" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="T11" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="U11" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="V11" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="W11" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="X11" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="C13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="D13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="E13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="F13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="G13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="H13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="I13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="J13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="K13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="L13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="M13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="N13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="O13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="P13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="R13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="S13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="T13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="U13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="V13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="W13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="X13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="C14" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="D14" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="E14" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="F14" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="G14" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="H14" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="I14" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="T14" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="U14" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="V14" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="W14" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="X14" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="C16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="D16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="E16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="F16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="G16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="H16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="I16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="J16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="K16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="L16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="M16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="N16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="O16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="P16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="R16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="S16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="T16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="U16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="V16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="W16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="X16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.91436900823322</v>
+        <v>11.91436900823321</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="18">
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2.345373895096259e-12</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="K19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="L19" t="n">
-        <v>76.32843350415772</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>97.68472022810511</v>
+        <v>76.32843350415968</v>
       </c>
       <c r="O19" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="R19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="21">
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>2.345373895096259e-12</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983813</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="J22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="K22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="M22" t="n">
-        <v>86.41330088048244</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="N22" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>97.68472022810511</v>
+        <v>76.32843350416013</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004739</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="K25" t="n">
-        <v>86.41330088048161</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="L25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="N25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="O25" t="n">
-        <v>97.68472022810511</v>
+        <v>86.4133008804842</v>
       </c>
       <c r="P25" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="C26" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="D26" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="E26" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="F26" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="G26" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="H26" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29302,16 +29302,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>84.4175542135178</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>84.41755421351661</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -29320,28 +29320,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>85.77035121987188</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="T26" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="U26" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="V26" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="W26" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="X26" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="Y26" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="C28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="D28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="E28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="F28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="G28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="H28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="I28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="J28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="K28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="L28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="M28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="N28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="O28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="P28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="R28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="S28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="T28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="U28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="V28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="W28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="X28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="C29" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="D29" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="E29" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="F29" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="G29" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="H29" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="I29" t="n">
-        <v>85.77035121987188</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29545,13 +29545,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>85.77035121987188</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>40.22413276657028</v>
+        <v>84.4175542135165</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="T29" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="U29" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="V29" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="W29" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="X29" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="Y29" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
     </row>
     <row r="30">
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4.592992652874273e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="C31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="D31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="E31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="F31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="G31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="H31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="I31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="J31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="K31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="L31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="M31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="N31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="O31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="P31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="R31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="S31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="T31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="U31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="V31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="W31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="X31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.77035121987188</v>
+        <v>85.77035121987177</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="C32" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="D32" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="E32" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="F32" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="G32" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="H32" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>84.41755421351627</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>85.77035121987191</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>84.41755421351789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="S32" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="T32" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="U32" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="V32" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="W32" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="X32" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="Y32" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
     </row>
     <row r="33">
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>4.592992652874273e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="C34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="D34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="E34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="F34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="G34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="H34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="I34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="J34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="K34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="L34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="M34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="N34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="O34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="P34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="R34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="S34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="T34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="U34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="V34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="W34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="X34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.77035121987191</v>
+        <v>85.77035121987183</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="36">
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
-        <v>86.41330088048386</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810498</v>
+        <v>86.41330088048369</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810498</v>
+        <v>85.08100106221661</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P40" t="n">
-        <v>76.32843350415939</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810498</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="42">
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810506</v>
+        <v>76.32843350415914</v>
       </c>
       <c r="P43" t="n">
-        <v>86.41330088048284</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30739,31 +30739,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="R44" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="45">
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68472022810506</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>86.41330088048358</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Q46" t="n">
-        <v>76.32843350415814</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810506</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0781197581607085</v>
+        <v>0.07811975816071469</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8000439732633562</v>
+        <v>0.8000439732634195</v>
       </c>
       <c r="I8" t="n">
-        <v>3.011711976490718</v>
+        <v>3.011711976490956</v>
       </c>
       <c r="J8" t="n">
-        <v>6.630316824192439</v>
+        <v>6.630316824192964</v>
       </c>
       <c r="K8" t="n">
-        <v>9.937126187135233</v>
+        <v>9.93712618713602</v>
       </c>
       <c r="L8" t="n">
-        <v>12.32788373594602</v>
+        <v>12.32788373594699</v>
       </c>
       <c r="M8" t="n">
-        <v>13.71714598513652</v>
+        <v>13.7171459851376</v>
       </c>
       <c r="N8" t="n">
-        <v>13.93910374801063</v>
+        <v>13.93910374801174</v>
       </c>
       <c r="O8" t="n">
-        <v>13.16230040280008</v>
+        <v>13.16230040280113</v>
       </c>
       <c r="P8" t="n">
-        <v>11.23371887320759</v>
+        <v>11.23371887320848</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.436055034077215</v>
+        <v>8.436055034077883</v>
       </c>
       <c r="R8" t="n">
-        <v>4.907190258562609</v>
+        <v>4.907190258562999</v>
       </c>
       <c r="S8" t="n">
-        <v>1.780153989087147</v>
+        <v>1.780153989087288</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3419692413485017</v>
+        <v>0.3419692413485287</v>
       </c>
       <c r="U8" t="n">
-        <v>0.006249580652856679</v>
+        <v>0.006249580652857174</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04179775551023195</v>
+        <v>0.04179775551023526</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4036783229540823</v>
+        <v>0.4036783229541142</v>
       </c>
       <c r="I9" t="n">
-        <v>1.439089389277723</v>
+        <v>1.439089389277837</v>
       </c>
       <c r="J9" t="n">
-        <v>3.94897127827152</v>
+        <v>3.948971278271832</v>
       </c>
       <c r="K9" t="n">
-        <v>6.74942089745706</v>
+        <v>6.749420897457594</v>
       </c>
       <c r="L9" t="n">
-        <v>9.075429326903652</v>
+        <v>9.07542932690437</v>
       </c>
       <c r="M9" t="n">
-        <v>10.59059796414956</v>
+        <v>10.5905979641504</v>
       </c>
       <c r="N9" t="n">
-        <v>10.87089957895282</v>
+        <v>10.87089957895369</v>
       </c>
       <c r="O9" t="n">
-        <v>9.944749312120843</v>
+        <v>9.94474931212163</v>
       </c>
       <c r="P9" t="n">
-        <v>7.981538067563503</v>
+        <v>7.981538067564134</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.335446826183293</v>
+        <v>5.335446826183714</v>
       </c>
       <c r="R9" t="n">
-        <v>2.595127311415981</v>
+        <v>2.595127311416186</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7763749762536499</v>
+        <v>0.7763749762537113</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1684742864644875</v>
+        <v>0.1684742864645008</v>
       </c>
       <c r="U9" t="n">
-        <v>0.002749852336199471</v>
+        <v>0.002749852336199689</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03504183414217029</v>
+        <v>0.03504183414217307</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3115537617367506</v>
+        <v>0.3115537617367753</v>
       </c>
       <c r="I10" t="n">
-        <v>1.053803521293631</v>
+        <v>1.053803521293714</v>
       </c>
       <c r="J10" t="n">
-        <v>2.477457673851439</v>
+        <v>2.477457673851636</v>
       </c>
       <c r="K10" t="n">
-        <v>4.071224003063056</v>
+        <v>4.071224003063379</v>
       </c>
       <c r="L10" t="n">
-        <v>5.209765050555028</v>
+        <v>5.20976505055544</v>
       </c>
       <c r="M10" t="n">
-        <v>5.492966782849475</v>
+        <v>5.49296678284991</v>
       </c>
       <c r="N10" t="n">
-        <v>5.362356310137754</v>
+        <v>5.362356310138178</v>
       </c>
       <c r="O10" t="n">
-        <v>4.95300397493149</v>
+        <v>4.953003974931882</v>
       </c>
       <c r="P10" t="n">
-        <v>4.238150558431212</v>
+        <v>4.238150558431548</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.934275766213915</v>
+        <v>2.934275766214147</v>
       </c>
       <c r="R10" t="n">
-        <v>1.575608287883402</v>
+        <v>1.575608287883527</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6106836004594585</v>
+        <v>0.6106836004595068</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1497242004256367</v>
+        <v>0.1497242004256485</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001911372771391109</v>
+        <v>0.00191137277139126</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,37 +32066,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32105,7 +32105,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32154,16 +32154,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
         <v>300.7247737883114</v>
@@ -32172,19 +32172,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780294</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974798</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003807</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781687</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970247</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098818</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780294</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974798</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003807</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095019</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781687</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32543,10 @@
         <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
         <v>221.4611312026437</v>
@@ -32555,34 +32555,34 @@
         <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970247</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.9375967297389</v>
@@ -32634,31 +32634,31 @@
         <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098818</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780294</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33515,7 +33515,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987486</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138795</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.49278562129942</v>
+        <v>57.4927856212994</v>
       </c>
       <c r="K13" t="n">
         <v>217.9620285525527</v>
@@ -35586,7 +35586,7 @@
         <v>246.8714401533436</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.30860754612685</v>
+        <v>90.30860754612684</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.49278562129939</v>
+        <v>57.4927856212994</v>
       </c>
       <c r="K16" t="n">
         <v>217.9620285525527</v>
@@ -35811,7 +35811,7 @@
         <v>331.6717411784313</v>
       </c>
       <c r="M16" t="n">
-        <v>359.5477484017169</v>
+        <v>359.547748401717</v>
       </c>
       <c r="N16" t="n">
         <v>356.7713151757732</v>
@@ -35820,10 +35820,10 @@
         <v>314.2674992308729</v>
       </c>
       <c r="P16" t="n">
-        <v>246.8714401533435</v>
+        <v>246.8714401533436</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.30860754612679</v>
+        <v>90.30860754612684</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882187</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597696</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36036,34 +36036,34 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.332299818266975</v>
+        <v>1.332299818266868</v>
       </c>
       <c r="J19" t="n">
-        <v>11.9421752903428</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K19" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L19" t="n">
-        <v>233.6111041328012</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M19" t="n">
-        <v>169.123718484038</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>270.7239495511832</v>
+        <v>249.3676628272379</v>
       </c>
       <c r="O19" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
         <v>197.6352280591743</v>
       </c>
       <c r="Q19" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R19" t="n">
-        <v>8.75256755805772</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N20" t="n">
         <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597696</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013289</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127269</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36273,34 +36273,34 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.332299818266861</v>
       </c>
       <c r="J22" t="n">
-        <v>109.6268955184479</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K22" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286435</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M22" t="n">
-        <v>255.5370193645205</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N22" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O22" t="n">
-        <v>236.9961840848623</v>
+        <v>215.6398973609173</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106919</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q22" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K25" t="n">
-        <v>185.7171940801486</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L25" t="n">
-        <v>254.9673908567488</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M25" t="n">
-        <v>169.1237184840381</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N25" t="n">
-        <v>270.7239495511834</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O25" t="n">
-        <v>236.9961840848624</v>
+        <v>225.7247647372415</v>
       </c>
       <c r="P25" t="n">
-        <v>197.6352280591744</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q25" t="n">
-        <v>110.7360003882473</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,16 +36598,16 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>540.0076686058497</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>624.6914670500983</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>592.4705551017356</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193716</v>
@@ -36616,7 +36616,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>145.3835497620966</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>97.71252651021474</v>
+        <v>97.71252651021463</v>
       </c>
       <c r="K28" t="n">
-        <v>185.0742444195389</v>
+        <v>257.9591690001193</v>
       </c>
       <c r="L28" t="n">
-        <v>243.0530218485155</v>
+        <v>243.0530218485154</v>
       </c>
       <c r="M28" t="n">
-        <v>327.7789942844883</v>
+        <v>254.8940697039099</v>
       </c>
       <c r="N28" t="n">
-        <v>258.8095805429501</v>
+        <v>258.80958054295</v>
       </c>
       <c r="O28" t="n">
-        <v>225.0818150766291</v>
+        <v>225.081815076629</v>
       </c>
       <c r="P28" t="n">
-        <v>185.7208590509412</v>
+        <v>185.720859050941</v>
       </c>
       <c r="Q28" t="n">
-        <v>98.82163138001405</v>
+        <v>98.82163138001394</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>44.19342144694591</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>638.0721866327832</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>548.2771336547893</v>
+        <v>592.4705551017356</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>484.5323374392436</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>97.71252651021474</v>
+        <v>131.348767832938</v>
       </c>
       <c r="K31" t="n">
-        <v>185.0742444195389</v>
+        <v>185.0742444195388</v>
       </c>
       <c r="L31" t="n">
-        <v>315.9379464290938</v>
+        <v>243.0530218485155</v>
       </c>
       <c r="M31" t="n">
         <v>254.89406970391</v>
@@ -37005,10 +37005,10 @@
         <v>225.0818150766291</v>
       </c>
       <c r="P31" t="n">
-        <v>185.7208590509412</v>
+        <v>185.7208590509411</v>
       </c>
       <c r="Q31" t="n">
-        <v>98.82163138001405</v>
+        <v>138.0703146378708</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,19 +37078,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>636.7193896264275</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>593.8233521080909</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>335.2118590172373</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>145.3835497620965</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127271</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>97.71252651021477</v>
+        <v>97.71252651021469</v>
       </c>
       <c r="K34" t="n">
-        <v>185.0742444195389</v>
+        <v>185.0742444195388</v>
       </c>
       <c r="L34" t="n">
-        <v>243.0530218485156</v>
+        <v>243.0530218485155</v>
       </c>
       <c r="M34" t="n">
-        <v>327.7789942844877</v>
+        <v>327.7789942844896</v>
       </c>
       <c r="N34" t="n">
         <v>258.8095805429501</v>
       </c>
       <c r="O34" t="n">
-        <v>225.0818150766292</v>
+        <v>225.0818150766291</v>
       </c>
       <c r="P34" t="n">
-        <v>185.7208590509412</v>
+        <v>185.7208590509411</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.82163138001408</v>
+        <v>98.821631380014</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>98.35547617082675</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K37" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L37" t="n">
-        <v>157.2826706286437</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M37" t="n">
-        <v>169.1237184840382</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511833</v>
+        <v>259.4525302035619</v>
       </c>
       <c r="O37" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P37" t="n">
         <v>197.6352280591743</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.7360003882472</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266868</v>
+        <v>1.332299818266911</v>
       </c>
       <c r="J40" t="n">
         <v>11.94217529034286</v>
@@ -37704,25 +37704,25 @@
         <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121431</v>
+        <v>254.2047195462548</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O40" t="n">
         <v>236.9961840848623</v>
       </c>
       <c r="P40" t="n">
-        <v>176.2789413352287</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057635</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.332299818266911</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K43" t="n">
-        <v>196.9886134277721</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567487</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121432</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N43" t="n">
         <v>270.7239495511833</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848623</v>
+        <v>215.6398973609164</v>
       </c>
       <c r="P43" t="n">
-        <v>186.3638087115521</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38035,10 +38035,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340053</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.332299818266954</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>109.6268955184479</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966699</v>
+        <v>185.7171940801506</v>
       </c>
       <c r="L46" t="n">
         <v>254.9673908567487</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121432</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
-        <v>89.37971366430031</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
-        <v>8.75256755805772</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
